--- a/data/out/standings_wc_fifa.xlsx
+++ b/data/out/standings_wc_fifa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:M139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,31 @@
           <t>new_top_teams</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>third_place_teams_list</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>top4_third_place</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -497,7 +522,30 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['Italy']</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Italy</t>
         </is>
       </c>
     </row>
@@ -523,7 +571,30 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['Belgium']</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Belgium</t>
         </is>
       </c>
     </row>
@@ -549,7 +620,30 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['Hungary']</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Soviet Union</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Hungary</t>
         </is>
       </c>
     </row>
@@ -575,7 +669,30 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['Northern Ireland']</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Northern Ireland</t>
         </is>
       </c>
     </row>
@@ -591,10 +708,8 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>42 +0</t>
-        </is>
+      <c r="D6" t="n">
+        <v>42</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -613,7 +728,30 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Spain', 'Algeria', 'Brazil']</t>
+          <t>['Brazil', 'Spain', 'Algeria']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['Algeria']</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Algeria</t>
         </is>
       </c>
     </row>
@@ -629,10 +767,8 @@
       <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>68 +0</t>
-        </is>
+      <c r="D7" t="n">
+        <v>68</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -651,7 +787,30 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['Northern Ireland']</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Northern Ireland</t>
         </is>
       </c>
     </row>
@@ -677,7 +836,30 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['West Germany', 'Uruguay', 'Denmark']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['Uruguay']</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>West Germany</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
         </is>
       </c>
     </row>
@@ -703,7 +885,30 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'England']</t>
+          <t>['England', 'Poland', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['England']</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>England</t>
         </is>
       </c>
     </row>
@@ -729,7 +934,30 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['Austria']</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Czechoslovakia</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Austria</t>
         </is>
       </c>
     </row>
@@ -755,7 +983,30 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['Argentina']</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Argentina</t>
         </is>
       </c>
     </row>
@@ -771,10 +1022,8 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>63 +0</t>
-        </is>
+      <c r="D12" t="n">
+        <v>63</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -793,7 +1042,30 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
+          <t>['Cameroon', 'Soviet Union', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['Soviet Union']</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Soviet Union</t>
         </is>
       </c>
     </row>
@@ -809,10 +1081,8 @@
       <c r="C13" t="n">
         <v>2</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>68 +0</t>
-        </is>
+      <c r="D13" t="n">
+        <v>68</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -831,7 +1101,30 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['Argentina']</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Argentina</t>
         </is>
       </c>
     </row>
@@ -857,7 +1150,30 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['Costa Rica']</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
         </is>
       </c>
     </row>
@@ -873,10 +1189,8 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>32 +0</t>
-        </is>
+      <c r="D15" t="n">
+        <v>32</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -895,7 +1209,30 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Scotland', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['Sweden']</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Sweden</t>
         </is>
       </c>
     </row>
@@ -911,10 +1248,8 @@
       <c r="C16" t="n">
         <v>2</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>75 +0</t>
-        </is>
+      <c r="D16" t="n">
+        <v>75</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -933,7 +1268,30 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['Costa Rica']</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
         </is>
       </c>
     </row>
@@ -959,7 +1317,30 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['Yugoslavia']</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>West Germany</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Yugoslavia</t>
         </is>
       </c>
     </row>
@@ -985,7 +1366,30 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['Uruguay']</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1415,30 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Egypt', 'Netherlands', 'England']</t>
+          <t>['Egypt', 'England', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['Netherlands']</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
         </is>
       </c>
     </row>
@@ -1027,10 +1454,8 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>71 +0</t>
-        </is>
+      <c r="D20" t="n">
+        <v>71</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1049,7 +1474,30 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Republic of Ireland', 'England']</t>
+          <t>['Republic of Ireland', 'England', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['Republic of Ireland']</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
         </is>
       </c>
     </row>
@@ -1078,6 +1526,29 @@
           <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['Romania']</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1091,10 +1562,8 @@
       <c r="C22" t="n">
         <v>1</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>44 +0</t>
-        </is>
+      <c r="D22" t="n">
+        <v>44</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1113,7 +1582,30 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Colombia', 'Romania', 'Switzerland']</t>
+          <t>['Colombia', 'Switzerland', 'Romania']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['Colombia']</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Colombia</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1631,30 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Cameroon']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['Cameroon']</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
         </is>
       </c>
     </row>
@@ -1155,10 +1670,8 @@
       <c r="C24" t="n">
         <v>1</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>15 +0</t>
-        </is>
+      <c r="D24" t="n">
+        <v>15</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1177,7 +1690,30 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['Russia']</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Russia</t>
         </is>
       </c>
     </row>
@@ -1203,7 +1739,30 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['South Korea']</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>South Korea</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1788,30 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['Bulgaria']</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1837,30 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico', 'Republic of Ireland']</t>
+          <t>['Mexico', 'Italy', 'Republic of Ireland']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['Italy']</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Italy</t>
         </is>
       </c>
     </row>
@@ -1271,10 +1876,8 @@
       <c r="C28" t="n">
         <v>1</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>48 +0</t>
-        </is>
+      <c r="D28" t="n">
+        <v>48</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1293,7 +1896,30 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['Italy', 'Norway', 'Republic of Ireland']</t>
+          <t>['Norway', 'Italy', 'Republic of Ireland']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['Norway']</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Norway</t>
         </is>
       </c>
     </row>
@@ -1309,10 +1935,8 @@
       <c r="C29" t="n">
         <v>2</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>57 +0</t>
-        </is>
+      <c r="D29" t="n">
+        <v>57</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1331,7 +1955,30 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico', 'Republic of Ireland']</t>
+          <t>['Mexico', 'Italy', 'Republic of Ireland']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['Republic of Ireland']</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
         </is>
       </c>
     </row>
@@ -1357,7 +2004,30 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['Netherlands']</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
         </is>
       </c>
     </row>
@@ -1383,7 +2053,30 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['Scotland']</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Scotland</t>
         </is>
       </c>
     </row>
@@ -1412,6 +2105,29 @@
           <t>['Italy', 'Chile']</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['Austria']</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1435,7 +2151,30 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['South Africa']</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>South Africa</t>
         </is>
       </c>
     </row>
@@ -1461,7 +2200,30 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['Bulgaria']</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
         </is>
       </c>
     </row>
@@ -1487,7 +2249,30 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['Belgium']</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Belgium</t>
         </is>
       </c>
     </row>
@@ -1503,10 +2288,8 @@
       <c r="C36" t="n">
         <v>1</v>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>7 +0</t>
-        </is>
+      <c r="D36" t="n">
+        <v>7</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1526,6 +2309,29 @@
       <c r="H36" t="inlineStr">
         <is>
           <t>['Belgium', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['Mexico']</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Mexico</t>
         </is>
       </c>
     </row>
@@ -1541,10 +2347,8 @@
       <c r="C37" t="n">
         <v>2</v>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>72 +0</t>
-        </is>
+      <c r="D37" t="n">
+        <v>72</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1563,7 +2367,30 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['Belgium']</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Belgium</t>
         </is>
       </c>
     </row>
@@ -1592,6 +2419,29 @@
           <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['Iran']</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Yugoslavia</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1615,7 +2465,30 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['Colombia']</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Colombia</t>
         </is>
       </c>
     </row>
@@ -1644,6 +2517,29 @@
           <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['Japan']</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1667,7 +2563,30 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['Uruguay']</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
         </is>
       </c>
     </row>
@@ -1693,7 +2612,30 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['Paraguay']</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
         </is>
       </c>
     </row>
@@ -1722,6 +2664,29 @@
           <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['Turkey']</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1735,10 +2700,8 @@
       <c r="C44" t="n">
         <v>1</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>10 +0</t>
-        </is>
+      <c r="D44" t="n">
+        <v>10</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1757,7 +2720,30 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['Costa Rica']</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
         </is>
       </c>
     </row>
@@ -1773,10 +2759,8 @@
       <c r="C45" t="n">
         <v>2</v>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>56 +0</t>
-        </is>
+      <c r="D45" t="n">
+        <v>56</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1796,6 +2780,29 @@
       <c r="H45" t="inlineStr">
         <is>
           <t>['Costa Rica', 'Brazil']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['Turkey']</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Turkey</t>
         </is>
       </c>
     </row>
@@ -1811,10 +2818,8 @@
       <c r="C46" t="n">
         <v>3</v>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>62 +0</t>
-        </is>
+      <c r="D46" t="n">
+        <v>62</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1833,7 +2838,30 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['Costa Rica']</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
         </is>
       </c>
     </row>
@@ -1859,7 +2887,30 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['Portugal']</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
@@ -1875,10 +2926,8 @@
       <c r="C48" t="n">
         <v>1</v>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>3 +0</t>
-        </is>
+      <c r="D48" t="n">
+        <v>3</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1897,7 +2946,30 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['United States']</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>United States</t>
         </is>
       </c>
     </row>
@@ -1913,10 +2985,8 @@
       <c r="C49" t="n">
         <v>2</v>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>70 +0</t>
-        </is>
+      <c r="D49" t="n">
+        <v>70</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1935,7 +3005,30 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['Portugal']</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
@@ -1964,6 +3057,29 @@
           <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['Republic of Ireland']</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1977,10 +3093,8 @@
       <c r="C51" t="n">
         <v>1</v>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>7 +0</t>
-        </is>
+      <c r="D51" t="n">
+        <v>7</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2000,6 +3114,29 @@
       <c r="H51" t="inlineStr">
         <is>
           <t>['Republic of Ireland', 'Germany']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['Cameroon']</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
         </is>
       </c>
     </row>
@@ -2028,6 +3165,29 @@
           <t>['Sweden', 'England']</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['Argentina']</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2051,7 +3211,30 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['Croatia']</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
@@ -2067,10 +3250,8 @@
       <c r="C54" t="n">
         <v>1</v>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>34 +0</t>
-        </is>
+      <c r="D54" t="n">
+        <v>34</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2090,6 +3271,29 @@
       <c r="H54" t="inlineStr">
         <is>
           <t>['Croatia', 'Mexico']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['Italy']</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Italy</t>
         </is>
       </c>
     </row>
@@ -2105,10 +3309,8 @@
       <c r="C55" t="n">
         <v>2</v>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>48 +0</t>
-        </is>
+      <c r="D55" t="n">
+        <v>48</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2127,7 +3329,30 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['Croatia']</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
@@ -2156,6 +3381,29 @@
           <t>['Russia', 'Japan']</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['Belgium']</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2169,10 +3417,8 @@
       <c r="C57" t="n">
         <v>1</v>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>7 +0</t>
-        </is>
+      <c r="D57" t="n">
+        <v>7</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2192,6 +3438,29 @@
       <c r="H57" t="inlineStr">
         <is>
           <t>['Belgium', 'Japan']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['Russia']</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Russia</t>
         </is>
       </c>
     </row>
@@ -2207,10 +3476,8 @@
       <c r="C58" t="n">
         <v>2</v>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>52 +0</t>
-        </is>
+      <c r="D58" t="n">
+        <v>52</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2230,6 +3497,29 @@
       <c r="H58" t="inlineStr">
         <is>
           <t>['Russia', 'Japan']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['Belgium']</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Belgium</t>
         </is>
       </c>
     </row>
@@ -2245,10 +3535,8 @@
       <c r="C59" t="n">
         <v>3</v>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>78 +0</t>
-        </is>
+      <c r="D59" t="n">
+        <v>78</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2268,6 +3556,29 @@
       <c r="H59" t="inlineStr">
         <is>
           <t>['Belgium', 'Japan']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['Russia']</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Russia</t>
         </is>
       </c>
     </row>
@@ -2296,6 +3607,29 @@
           <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['Poland']</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2322,6 +3656,29 @@
           <t>['Sweden', 'England']</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['Paraguay']</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2335,10 +3692,8 @@
       <c r="C62" t="n">
         <v>1</v>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>86 +0</t>
-        </is>
+      <c r="D62" t="n">
+        <v>86</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2358,6 +3713,29 @@
       <c r="H62" t="inlineStr">
         <is>
           <t>['Paraguay', 'England']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['Sweden']</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Sweden</t>
         </is>
       </c>
     </row>
@@ -2373,10 +3751,8 @@
       <c r="C63" t="n">
         <v>2</v>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>90 +0</t>
-        </is>
+      <c r="D63" t="n">
+        <v>90</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2396,6 +3772,29 @@
       <c r="H63" t="inlineStr">
         <is>
           <t>['Sweden', 'England']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['Paraguay']</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
         </is>
       </c>
     </row>
@@ -2421,7 +3820,30 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['Ivory Coast']</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
         </is>
       </c>
     </row>
@@ -2450,6 +3872,29 @@
           <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['Angola']</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Angola</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2476,6 +3921,29 @@
           <t>['Italy', 'Czech Republic']</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['Ghana']</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2489,10 +3957,8 @@
       <c r="C67" t="n">
         <v>1</v>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>22 +0</t>
-        </is>
+      <c r="D67" t="n">
+        <v>22</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2512,6 +3978,29 @@
       <c r="H67" t="inlineStr">
         <is>
           <t>['Italy', 'Ghana']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['Czech Republic']</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
         </is>
       </c>
     </row>
@@ -2537,7 +4026,30 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['Croatia']</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
@@ -2553,10 +4065,8 @@
       <c r="C69" t="n">
         <v>1</v>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>2 +0</t>
-        </is>
+      <c r="D69" t="n">
+        <v>2</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2576,6 +4086,29 @@
       <c r="H69" t="inlineStr">
         <is>
           <t>['Croatia', 'Brazil']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['Australia']</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Australia</t>
         </is>
       </c>
     </row>
@@ -2591,10 +4124,8 @@
       <c r="C70" t="n">
         <v>2</v>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>38 +0</t>
-        </is>
+      <c r="D70" t="n">
+        <v>38</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2613,7 +4144,30 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['Japan']</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Japan</t>
         </is>
       </c>
     </row>
@@ -2629,10 +4183,8 @@
       <c r="C71" t="n">
         <v>3</v>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>56 +0</t>
-        </is>
+      <c r="D71" t="n">
+        <v>56</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2652,6 +4204,29 @@
       <c r="H71" t="inlineStr">
         <is>
           <t>['Croatia', 'Brazil']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['Australia']</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Australia</t>
         </is>
       </c>
     </row>
@@ -2667,10 +4242,8 @@
       <c r="C72" t="n">
         <v>4</v>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>79 +0</t>
-        </is>
+      <c r="D72" t="n">
+        <v>79</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2689,7 +4262,30 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['Croatia']</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
@@ -2715,7 +4311,30 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['France']</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>France</t>
         </is>
       </c>
     </row>
@@ -2731,10 +4350,8 @@
       <c r="C74" t="n">
         <v>1</v>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>55 +0</t>
-        </is>
+      <c r="D74" t="n">
+        <v>55</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2753,7 +4370,30 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['South Korea']</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>South Korea</t>
         </is>
       </c>
     </row>
@@ -2782,6 +4422,29 @@
           <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['Tunisia']</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2805,7 +4468,30 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['France']</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>France</t>
         </is>
       </c>
     </row>
@@ -2834,6 +4520,29 @@
           <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['Greece']</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2847,10 +4556,8 @@
       <c r="C78" t="n">
         <v>1</v>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>12 +0</t>
-        </is>
+      <c r="D78" t="n">
+        <v>12</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2870,6 +4577,29 @@
       <c r="H78" t="inlineStr">
         <is>
           <t>['Greece', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['South Korea']</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>South Korea</t>
         </is>
       </c>
     </row>
@@ -2885,10 +4615,8 @@
       <c r="C79" t="n">
         <v>2</v>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>38 +0</t>
-        </is>
+      <c r="D79" t="n">
+        <v>38</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2908,6 +4636,29 @@
       <c r="H79" t="inlineStr">
         <is>
           <t>['South Korea', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['Greece']</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Greece</t>
         </is>
       </c>
     </row>
@@ -2936,6 +4687,29 @@
           <t>['United States', 'Slovenia']</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['England']</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2949,10 +4723,8 @@
       <c r="C81" t="n">
         <v>1</v>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>23 +0</t>
-        </is>
+      <c r="D81" t="n">
+        <v>23</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2971,7 +4743,30 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['England', 'Slovenia']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['United States']</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>United States</t>
         </is>
       </c>
     </row>
@@ -2987,10 +4782,8 @@
       <c r="C82" t="n">
         <v>2</v>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>90 +1</t>
-        </is>
+      <c r="D82" t="n">
+        <v>91</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3010,6 +4803,29 @@
       <c r="H82" t="inlineStr">
         <is>
           <t>['United States', 'England']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['Slovenia']</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
         </is>
       </c>
     </row>
@@ -3035,7 +4851,30 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['Serbia']</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Serbia</t>
         </is>
       </c>
     </row>
@@ -3061,7 +4900,30 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Denmark']</t>
+          <t>['Denmark', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['Japan']</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Japan</t>
         </is>
       </c>
     </row>
@@ -3077,10 +4939,8 @@
       <c r="C85" t="n">
         <v>1</v>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>17 +0</t>
-        </is>
+      <c r="D85" t="n">
+        <v>17</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3100,6 +4960,29 @@
       <c r="H85" t="inlineStr">
         <is>
           <t>['Netherlands', 'Japan']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['Denmark']</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Denmark</t>
         </is>
       </c>
     </row>
@@ -3128,6 +5011,29 @@
           <t>['Italy', 'Paraguay']</t>
         </is>
       </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['New Zealand']</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3141,10 +5047,8 @@
       <c r="C87" t="n">
         <v>1</v>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>25 +0</t>
-        </is>
+      <c r="D87" t="n">
+        <v>25</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3164,6 +5068,29 @@
       <c r="H87" t="inlineStr">
         <is>
           <t>['Paraguay', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['New Zealand']</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
         </is>
       </c>
     </row>
@@ -3189,7 +5116,30 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['Ivory Coast']</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
         </is>
       </c>
     </row>
@@ -3218,6 +5168,29 @@
           <t>['Spain', 'Chile']</t>
         </is>
       </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['Switzerland']</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3241,7 +5214,30 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['Croatia']</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
@@ -3267,7 +5263,30 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['Australia']</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Australia</t>
         </is>
       </c>
     </row>
@@ -3293,7 +5312,30 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['Japan']</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Japan</t>
         </is>
       </c>
     </row>
@@ -3309,10 +5351,8 @@
       <c r="C93" t="n">
         <v>1</v>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>42 +0</t>
-        </is>
+      <c r="D93" t="n">
+        <v>42</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3331,7 +5371,30 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['Ivory Coast']</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
         </is>
       </c>
     </row>
@@ -3347,10 +5410,8 @@
       <c r="C94" t="n">
         <v>2</v>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>74 +0</t>
-        </is>
+      <c r="D94" t="n">
+        <v>74</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3369,7 +5430,30 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['Greece']</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Greece</t>
         </is>
       </c>
     </row>
@@ -3385,10 +5469,8 @@
       <c r="C95" t="n">
         <v>3</v>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>90 +3</t>
-        </is>
+      <c r="D95" t="n">
+        <v>93</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3407,7 +5489,30 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['Ivory Coast']</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
         </is>
       </c>
     </row>
@@ -3433,7 +5538,30 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['Uruguay']</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
         </is>
       </c>
     </row>
@@ -3449,10 +5577,8 @@
       <c r="C97" t="n">
         <v>1</v>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>81 +0</t>
-        </is>
+      <c r="D97" t="n">
+        <v>81</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3471,7 +5597,30 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['Italy']</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Italy</t>
         </is>
       </c>
     </row>
@@ -3500,6 +5649,29 @@
           <t>['France', 'Ecuador']</t>
         </is>
       </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['Switzerland']</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3513,10 +5685,8 @@
       <c r="C99" t="n">
         <v>1</v>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>6 +0</t>
-        </is>
+      <c r="D99" t="n">
+        <v>6</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3535,7 +5705,30 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['Ecuador']</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
         </is>
       </c>
     </row>
@@ -3564,6 +5757,29 @@
           <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['Bosnia and Herzegovina']</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3577,10 +5793,8 @@
       <c r="C101" t="n">
         <v>1</v>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>59 +0</t>
-        </is>
+      <c r="D101" t="n">
+        <v>59</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3599,7 +5813,30 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bosnia and Herzegovina']</t>
+          <t>['Bosnia and Herzegovina', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['Nigeria']</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
         </is>
       </c>
     </row>
@@ -3628,6 +5865,29 @@
           <t>['United States', 'Germany']</t>
         </is>
       </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>['Ghana']</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3654,6 +5914,29 @@
           <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>['Russia']</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3667,10 +5950,8 @@
       <c r="C104" t="n">
         <v>1</v>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>6 +0</t>
-        </is>
+      <c r="D104" t="n">
+        <v>6</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3690,6 +5971,29 @@
       <c r="H104" t="inlineStr">
         <is>
           <t>['Belgium', 'Russia']</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>['Algeria']</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Algeria</t>
         </is>
       </c>
     </row>
@@ -3705,10 +6009,8 @@
       <c r="C105" t="n">
         <v>2</v>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>60 +0</t>
-        </is>
+      <c r="D105" t="n">
+        <v>60</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3728,6 +6030,29 @@
       <c r="H105" t="inlineStr">
         <is>
           <t>['Belgium', 'Algeria']</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>['Russia']</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Russia</t>
         </is>
       </c>
     </row>
@@ -3753,7 +6078,30 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>['Egypt']</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>Egypt</t>
         </is>
       </c>
     </row>
@@ -3782,6 +6130,29 @@
           <t>['Spain', 'Portugal']</t>
         </is>
       </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>['Iran']</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3805,7 +6176,30 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>['Australia']</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>Australia</t>
         </is>
       </c>
     </row>
@@ -3831,7 +6225,30 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>['Iceland']</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Iceland</t>
         </is>
       </c>
     </row>
@@ -3847,10 +6264,8 @@
       <c r="C110" t="n">
         <v>1</v>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>14 +0</t>
-        </is>
+      <c r="D110" t="n">
+        <v>14</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3870,6 +6285,29 @@
       <c r="H110" t="inlineStr">
         <is>
           <t>['Croatia', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>['Nigeria']</t>
+        </is>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
         </is>
       </c>
     </row>
@@ -3885,10 +6323,8 @@
       <c r="C111" t="n">
         <v>2</v>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>51 +0</t>
-        </is>
+      <c r="D111" t="n">
+        <v>51</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3907,7 +6343,30 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>['Iceland']</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Iceland</t>
         </is>
       </c>
     </row>
@@ -3923,10 +6382,8 @@
       <c r="C112" t="n">
         <v>3</v>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>86 +0</t>
-        </is>
+      <c r="D112" t="n">
+        <v>86</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3946,6 +6403,29 @@
       <c r="H112" t="inlineStr">
         <is>
           <t>['Croatia', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>['Nigeria']</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
         </is>
       </c>
     </row>
@@ -3974,6 +6454,29 @@
           <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>['Serbia']</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -4000,6 +6503,29 @@
           <t>['Mexico', 'Germany']</t>
         </is>
       </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>['Sweden']</t>
+        </is>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4013,10 +6539,8 @@
       <c r="C115" t="n">
         <v>1</v>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>50 +0</t>
-        </is>
+      <c r="D115" t="n">
+        <v>50</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4035,7 +6559,30 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>['Germany']</t>
+        </is>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>Germany</t>
         </is>
       </c>
     </row>
@@ -4064,6 +6611,29 @@
           <t>['Belgium', 'England']</t>
         </is>
       </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>['Tunisia']</t>
+        </is>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4090,6 +6660,29 @@
           <t>['Colombia', 'Japan']</t>
         </is>
       </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>['Senegal']</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -4116,6 +6709,29 @@
           <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>['Senegal']</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4129,10 +6745,8 @@
       <c r="C119" t="n">
         <v>1</v>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>44 +0</t>
-        </is>
+      <c r="D119" t="n">
+        <v>44</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4151,7 +6765,30 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>['Ecuador']</t>
+        </is>
+      </c>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
         </is>
       </c>
     </row>
@@ -4167,10 +6804,8 @@
       <c r="C120" t="n">
         <v>2</v>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>67 +0</t>
-        </is>
+      <c r="D120" t="n">
+        <v>67</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4190,6 +6825,29 @@
       <c r="H120" t="inlineStr">
         <is>
           <t>['Netherlands', 'Ecuador']</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>['Senegal']</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>Senegal</t>
         </is>
       </c>
     </row>
@@ -4205,10 +6863,8 @@
       <c r="C121" t="n">
         <v>3</v>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>70 +0</t>
-        </is>
+      <c r="D121" t="n">
+        <v>70</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4227,7 +6883,30 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>['Ecuador']</t>
+        </is>
+      </c>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
         </is>
       </c>
     </row>
@@ -4256,6 +6935,29 @@
           <t>['Iran', 'England']</t>
         </is>
       </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>['United States']</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4269,10 +6971,8 @@
       <c r="C123" t="n">
         <v>1</v>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>38 +0</t>
-        </is>
+      <c r="D123" t="n">
+        <v>38</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -4292,6 +6992,29 @@
       <c r="H123" t="inlineStr">
         <is>
           <t>['United States', 'England']</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>['Iran']</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>Iran</t>
         </is>
       </c>
     </row>
@@ -4320,6 +7043,29 @@
           <t>['Poland', 'Argentina']</t>
         </is>
       </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4346,6 +7092,29 @@
           <t>['France', 'Australia']</t>
         </is>
       </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>['Denmark']</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -4359,10 +7128,8 @@
       <c r="C126" t="n">
         <v>1</v>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>58 +0</t>
-        </is>
+      <c r="D126" t="n">
+        <v>58</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -4382,6 +7149,29 @@
       <c r="H126" t="inlineStr">
         <is>
           <t>['France', 'Tunisia']</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>['Australia']</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>Australia</t>
         </is>
       </c>
     </row>
@@ -4397,10 +7187,8 @@
       <c r="C127" t="n">
         <v>2</v>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>60 +0</t>
-        </is>
+      <c r="D127" t="n">
+        <v>60</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -4420,6 +7208,29 @@
       <c r="H127" t="inlineStr">
         <is>
           <t>['France', 'Australia']</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>['Tunisia']</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
         </is>
       </c>
     </row>
@@ -4448,6 +7259,29 @@
           <t>['Spain', 'Japan']</t>
         </is>
       </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>['Costa Rica']</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -4461,10 +7295,8 @@
       <c r="C129" t="n">
         <v>1</v>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>10 +0</t>
-        </is>
+      <c r="D129" t="n">
+        <v>10</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -4484,6 +7316,29 @@
       <c r="H129" t="inlineStr">
         <is>
           <t>['Spain', 'Germany']</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>['Japan']</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>Japan</t>
         </is>
       </c>
     </row>
@@ -4499,10 +7354,8 @@
       <c r="C130" t="n">
         <v>2</v>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>51 +0</t>
-        </is>
+      <c r="D130" t="n">
+        <v>51</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4522,6 +7375,29 @@
       <c r="H130" t="inlineStr">
         <is>
           <t>['Spain', 'Japan']</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>['Germany']</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>Germany</t>
         </is>
       </c>
     </row>
@@ -4537,10 +7413,8 @@
       <c r="C131" t="n">
         <v>3</v>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>70 +0</t>
-        </is>
+      <c r="D131" t="n">
+        <v>70</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -4559,7 +7433,30 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>['Japan', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Japan']</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>['Spain']</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>Spain</t>
         </is>
       </c>
     </row>
@@ -4575,10 +7472,8 @@
       <c r="C132" t="n">
         <v>4</v>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>73 +0</t>
-        </is>
+      <c r="D132" t="n">
+        <v>73</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -4598,6 +7493,29 @@
       <c r="H132" t="inlineStr">
         <is>
           <t>['Spain', 'Japan']</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>['Costa Rica']</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
         </is>
       </c>
     </row>
@@ -4626,6 +7544,29 @@
           <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>['Belgium']</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -4652,6 +7593,29 @@
           <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>['Cameroon']</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -4665,10 +7629,8 @@
       <c r="C135" t="n">
         <v>1</v>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>35 +0</t>
-        </is>
+      <c r="D135" t="n">
+        <v>35</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -4687,7 +7649,30 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>['Serbia', 'Brazil']</t>
+          <t>['Brazil', 'Serbia']</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>['Switzerland']</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
         </is>
       </c>
     </row>
@@ -4703,10 +7688,8 @@
       <c r="C136" t="n">
         <v>2</v>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>44 +0</t>
-        </is>
+      <c r="D136" t="n">
+        <v>44</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -4726,6 +7709,29 @@
       <c r="H136" t="inlineStr">
         <is>
           <t>['Switzerland', 'Brazil']</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>['Cameroon']</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
         </is>
       </c>
     </row>
@@ -4751,7 +7757,30 @@
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>['South Korea']</t>
+        </is>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>South Korea</t>
         </is>
       </c>
     </row>
@@ -4767,10 +7796,8 @@
       <c r="C138" t="n">
         <v>1</v>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>26 +0</t>
-        </is>
+      <c r="D138" t="n">
+        <v>26</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -4790,6 +7817,29 @@
       <c r="H138" t="inlineStr">
         <is>
           <t>['Uruguay', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>['Ghana']</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>Ghana</t>
         </is>
       </c>
     </row>
@@ -4805,10 +7855,8 @@
       <c r="C139" t="n">
         <v>2</v>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>90 +1</t>
-        </is>
+      <c r="D139" t="n">
+        <v>91</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -4827,7 +7875,30 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>['Uruguay']</t>
+        </is>
+      </c>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
         </is>
       </c>
     </row>

--- a/data/out/standings_wc_fifa.xlsx
+++ b/data/out/standings_wc_fifa.xlsx
@@ -522,7 +522,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -571,7 +571,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -620,7 +620,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -669,7 +669,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -836,7 +836,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -885,7 +885,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Portugal']</t>
+          <t>['Portugal', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -934,7 +934,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -983,7 +983,7 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Soviet Union', 'Argentina']</t>
+          <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1150,7 +1150,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1317,7 +1317,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1366,7 +1366,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1415,7 +1415,7 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Egypt', 'England', 'Netherlands']</t>
+          <t>['Netherlands', 'England', 'Egypt']</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'England', 'Netherlands']</t>
+          <t>['Netherlands', 'Republic of Ireland', 'England']</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1523,7 +1523,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Colombia', 'Switzerland', 'Romania']</t>
+          <t>['Switzerland', 'Romania', 'Colombia']</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1631,7 +1631,7 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Cameroon']</t>
+          <t>['Cameroon', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1739,7 +1739,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1788,7 +1788,7 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1837,7 +1837,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['Norway', 'Italy', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Italy', 'Norway']</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2004,7 +2004,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2053,7 +2053,7 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2151,7 +2151,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2249,7 +2249,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2416,7 +2416,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2514,7 +2514,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2563,7 +2563,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2661,7 +2661,7 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2887,7 +2887,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3005,7 +3005,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3270,7 +3270,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3378,7 +3378,7 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3604,7 +3604,7 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3820,7 +3820,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3918,7 +3918,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['Italy', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Italy']</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4026,7 +4026,7 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4517,7 +4517,7 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['Greece', 'Argentina']</t>
+          <t>['Argentina', 'Greece']</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4635,7 +4635,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4851,7 +4851,7 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4900,7 +4900,7 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Denmark', 'Netherlands']</t>
+          <t>['Netherlands', 'Denmark']</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5008,7 +5008,7 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5214,7 +5214,7 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5371,7 +5371,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5538,7 +5538,7 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Italy', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Uruguay']</t>
+          <t>['Uruguay', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5646,7 +5646,7 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5754,7 +5754,7 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['Bosnia and Herzegovina', 'Argentina']</t>
+          <t>['Argentina', 'Bosnia and Herzegovina']</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5862,7 +5862,7 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -6078,7 +6078,7 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6127,7 +6127,7 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6176,7 +6176,7 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6284,7 +6284,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6402,7 +6402,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6451,7 +6451,7 @@
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6500,7 +6500,7 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6559,7 +6559,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6657,7 +6657,7 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>['Colombia', 'Japan']</t>
+          <t>['Japan', 'Colombia']</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -7040,7 +7040,7 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -7089,7 +7089,7 @@
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>['France', 'Tunisia']</t>
+          <t>['Tunisia', 'France']</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -7256,7 +7256,7 @@
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -7315,7 +7315,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Japan']</t>
+          <t>['Japan', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -7492,7 +7492,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7541,7 +7541,7 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -7590,7 +7590,7 @@
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>['Brazil', 'Serbia']</t>
+          <t>['Serbia', 'Brazil']</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7875,7 +7875,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
